--- a/app/错误统计.xlsx
+++ b/app/错误统计.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="26148" windowHeight="14244"/>
+    <workbookView windowWidth="30623" windowHeight="14220"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17">
   <si>
     <t>问题</t>
   </si>
@@ -50,7 +50,7 @@
 </t>
   </si>
   <si>
-    <t>java.lang.NoClassDefFoundError: io.reactivex.processors.PublishProcessor</t>
+    <t>java.lang.NoClassDefFoundError</t>
   </si>
   <si>
     <t>NoClassDefFoundError</t>
@@ -61,6 +61,18 @@
         super.attachBaseContext(base);
         MultiDex.install(this);
     }</t>
+  </si>
+  <si>
+    <t>com.google.gson.stream.MalformedJsonException</t>
+  </si>
+  <si>
+    <t>MalformedJsonException</t>
+  </si>
+  <si>
+    <t>json内容不正确，造成json解析异常</t>
+  </si>
+  <si>
+    <t>改成正确的json</t>
   </si>
 </sst>
 </file>
@@ -70,10 +82,10 @@
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -82,20 +94,74 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FFFF0000"/>
+      <name val="Consolas"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="14"/>
       <color rgb="FFF8F8F2"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
-      <sz val="10.8"/>
-      <color rgb="FFF8F8F2"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -103,6 +169,29 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -116,24 +205,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -147,8 +220,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -156,24 +230,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -185,9 +244,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -195,44 +261,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -247,187 +275,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -438,6 +466,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -465,17 +508,22 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -495,11 +543,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -512,32 +566,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -546,10 +574,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -558,151 +586,160 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1021,78 +1058,89 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="66.7777777777778" defaultRowHeight="36" customHeight="1" outlineLevelRow="4" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="66.7777777777778" style="2" customWidth="1"/>
+    <col min="1" max="1" width="47.6666666666667" style="1" customWidth="1"/>
     <col min="2" max="2" width="33.7777777777778" style="2" customWidth="1"/>
-    <col min="3" max="3" width="34" style="2" customWidth="1"/>
-    <col min="4" max="4" width="48" style="2" customWidth="1"/>
-    <col min="5" max="16372" width="66.7777777777778" style="2" customWidth="1"/>
-    <col min="16380" max="16384" width="66.7777777777778" style="2"/>
+    <col min="3" max="3" width="34" style="1" customWidth="1"/>
+    <col min="4" max="4" width="48" style="1" customWidth="1"/>
+    <col min="5" max="16372" width="66.7777777777778" style="1" customWidth="1"/>
+    <col min="16373" max="16379" width="66.7777777777778" style="3"/>
+    <col min="16380" max="16384" width="66.7777777777778" style="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" customHeight="1" spans="1:5">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:5">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" ht="118" customHeight="1" spans="1:5">
-      <c r="A3" s="2" t="s">
+    <row r="3" ht="118" customHeight="1" spans="1:4">
+      <c r="A3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="1"/>
     </row>
-    <row r="4" customHeight="1" spans="4:4">
-      <c r="D4" s="3"/>
+    <row r="4" customHeight="1" spans="1:4">
+      <c r="A4" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="5" customHeight="1" spans="4:4">
-      <c r="D5" s="4"/>
+      <c r="D5" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/app/错误统计.xlsx
+++ b/app/错误统计.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="30623" windowHeight="14220"/>
+    <workbookView windowWidth="22943" windowHeight="9924"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20">
   <si>
     <t>问题</t>
   </si>
@@ -73,6 +73,15 @@
   </si>
   <si>
     <t>改成正确的json</t>
+  </si>
+  <si>
+    <t>UnsupportedOperationException</t>
+  </si>
+  <si>
+    <t>Arrays.asList()转换的list不能增删改查</t>
+  </si>
+  <si>
+    <t>自己创建需要的list列表，把所需数据装入其中</t>
   </si>
 </sst>
 </file>
@@ -80,12 +89,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -96,14 +105,6 @@
     <font>
       <sz val="14"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="14"/>
-      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -116,14 +117,46 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="14"/>
-      <color rgb="FFF8F8F2"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -131,60 +164,6 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -198,20 +177,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -220,6 +185,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -228,6 +200,29 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -237,16 +232,16 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -275,187 +270,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -466,6 +461,24 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -484,15 +497,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -504,26 +508,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -560,6 +544,17 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
@@ -574,10 +569,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -586,137 +581,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -724,21 +719,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1063,7 +1043,7 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="66.7777777777778" defaultRowHeight="36" customHeight="1" outlineLevelRow="4" outlineLevelCol="4"/>
@@ -1073,74 +1053,81 @@
     <col min="3" max="3" width="34" style="1" customWidth="1"/>
     <col min="4" max="4" width="48" style="1" customWidth="1"/>
     <col min="5" max="16372" width="66.7777777777778" style="1" customWidth="1"/>
-    <col min="16373" max="16379" width="66.7777777777778" style="3"/>
-    <col min="16380" max="16384" width="66.7777777777778" style="1"/>
+    <col min="16373" max="16384" width="66.7777777777778" style="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" customHeight="1" spans="1:5">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:5">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="3" ht="118" customHeight="1" spans="1:4">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="1" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:4">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="5" customHeight="1" spans="4:4">
-      <c r="D5" s="7"/>
+    <row r="5" customHeight="1" spans="2:4">
+      <c r="B5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>19</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/app/错误统计.xlsx
+++ b/app/错误统计.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21">
   <si>
     <t>问题</t>
   </si>
@@ -75,10 +75,13 @@
     <t>改成正确的json</t>
   </si>
   <si>
+    <t>java.lang.UnsupportedOperationException</t>
+  </si>
+  <si>
     <t>UnsupportedOperationException</t>
   </si>
   <si>
-    <t>Arrays.asList()转换的list不能增删改查</t>
+    <t>Arrays.asList()等转换的list不能增删改查，不需要的话，可以用这个</t>
   </si>
   <si>
     <t>自己创建需要的list列表，把所需数据装入其中</t>
@@ -89,10 +92,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -117,6 +120,14 @@
       <charset val="134"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -125,17 +136,16 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -147,23 +157,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -177,6 +172,50 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -185,77 +224,41 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
       <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -270,19 +273,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -294,19 +393,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -318,61 +423,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -384,30 +447,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -415,42 +454,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -468,7 +471,46 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -477,6 +519,17 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -497,36 +550,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -541,26 +564,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -569,10 +572,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -581,133 +584,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1043,7 +1046,7 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="66.7777777777778" defaultRowHeight="36" customHeight="1" outlineLevelRow="4" outlineLevelCol="4"/>
@@ -1118,15 +1121,18 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" customHeight="1" spans="2:4">
+    <row r="5" customHeight="1" spans="1:4">
+      <c r="A5" s="1" t="s">
+        <v>17</v>
+      </c>
       <c r="B5" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/app/错误统计.xlsx
+++ b/app/错误统计.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22943" windowHeight="9924"/>
+    <workbookView windowWidth="26148" windowHeight="14244"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23">
   <si>
     <t>问题</t>
   </si>
@@ -85,6 +85,12 @@
   </si>
   <si>
     <t>自己创建需要的list列表，把所需数据装入其中</t>
+  </si>
+  <si>
+    <t>stackoverflowerror</t>
+  </si>
+  <si>
+    <t>很大可能是有死循环产生了；再有就是真的内存溢出了，需要优化内存（一般不可能）</t>
   </si>
 </sst>
 </file>
@@ -120,30 +126,16 @@
       <charset val="134"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -157,65 +149,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -226,6 +159,79 @@
     <font>
       <u/>
       <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
       <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -242,7 +248,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -250,15 +256,15 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -273,19 +279,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -297,163 +435,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -493,9 +499,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -518,19 +526,32 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -549,21 +570,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -572,10 +578,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -584,133 +590,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1043,17 +1049,17 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="66.7777777777778" defaultRowHeight="36" customHeight="1" outlineLevelRow="4" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="66.7777777777778" defaultRowHeight="36" customHeight="1" outlineLevelRow="5" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="47.6666666666667" style="1" customWidth="1"/>
     <col min="2" max="2" width="33.7777777777778" style="2" customWidth="1"/>
-    <col min="3" max="3" width="34" style="1" customWidth="1"/>
+    <col min="3" max="3" width="35.6666666666667" style="1" customWidth="1"/>
     <col min="4" max="4" width="48" style="1" customWidth="1"/>
     <col min="5" max="16372" width="66.7777777777778" style="1" customWidth="1"/>
     <col min="16373" max="16384" width="66.7777777777778" style="1"/>
@@ -1133,6 +1139,14 @@
       </c>
       <c r="D5" s="1" t="s">
         <v>20</v>
+      </c>
+    </row>
+    <row r="6" customHeight="1" spans="2:3">
+      <c r="B6" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/app/错误统计.xlsx
+++ b/app/错误统计.xlsx
@@ -44,9 +44,9 @@
   </si>
   <si>
     <t xml:space="preserve">
-    在defaultConfig中添加multiDexEnabled = true 
-    导入分包support库compile 'com.android.support:multidex:1.0.1' 
-    用MultiDexApplication替代Application，或者在你application的attachBaseContext()方法中调用MultiDex.install()。
+1.在defaultConfig中添加multiDexEnabled = true 
+2.导入分包support库compile 'com.android.support:multidex:1.0.1' 
+3.用MultiDexApplication替代Application，或者在application的attachBaseContext()方法中调用MultiDex.install()。
 </t>
   </si>
   <si>
@@ -56,9 +56,10 @@
     <t>NoClassDefFoundError</t>
   </si>
   <si>
-    <t xml:space="preserve"> compile 'com.android.support:multidex:1.0.1' 在application中引用@Override
+    <t>1.compile 'com.android.support:multidex:1.0.1'
+2.在application中引用@Override
     protected void attachBaseContext(Context base) {
-        super.attachBaseContext(base);
+   super.attachBaseContext(base);
         MultiDex.install(this);
     }</t>
   </si>
@@ -98,10 +99,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -126,6 +127,111 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -135,43 +241,21 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -179,92 +263,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -285,37 +286,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -327,139 +454,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -470,15 +471,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -493,17 +485,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -526,8 +507,52 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -546,30 +571,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -578,10 +579,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -590,137 +591,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -729,6 +730,12 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1052,7 +1059,7 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="66.7777777777778" defaultRowHeight="36" customHeight="1" outlineLevelRow="5" outlineLevelCol="4"/>
@@ -1092,14 +1099,14 @@
       <c r="C2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" ht="118" customHeight="1" spans="1:4">
+    <row r="3" ht="118" customHeight="1" spans="1:5">
       <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
@@ -1109,9 +1116,10 @@
       <c r="C3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="4" t="s">
         <v>12</v>
       </c>
+      <c r="E3" s="4"/>
     </row>
     <row r="4" customHeight="1" spans="1:4">
       <c r="A4" s="1" t="s">

--- a/app/错误统计.xlsx
+++ b/app/错误统计.xlsx
@@ -99,10 +99,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -128,6 +128,21 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -135,20 +150,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -156,6 +157,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -169,32 +177,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -216,9 +201,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -233,15 +225,24 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -249,7 +250,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -257,15 +258,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -280,13 +280,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -298,169 +460,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -474,17 +474,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -516,17 +510,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -579,10 +579,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -591,10 +591,10 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -603,121 +603,121 @@
     <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1059,7 +1059,7 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="66.7777777777778" defaultRowHeight="36" customHeight="1" outlineLevelRow="5" outlineLevelCol="4"/>
@@ -1135,7 +1135,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" customHeight="1" spans="1:4">
+    <row r="5" ht="62" customHeight="1" spans="1:4">
       <c r="A5" s="1" t="s">
         <v>17</v>
       </c>
